--- a/xlsx/弗里德里希·艾伯特_intext.xlsx
+++ b/xlsx/弗里德里希·艾伯特_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196">
   <si>
     <t>弗里德里希·艾伯特</t>
   </si>
@@ -29,13 +29,13 @@
     <t>弗里德里希·艾伯特 (1894年-1979年)</t>
   </si>
   <si>
-    <t>政策_政策_智庫_弗里德里希·艾伯特</t>
+    <t>政策_政策_智库_弗里德里希·艾伯特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E7%8E%9B%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -47,19 +47,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB%E9%BB%A8</t>
   </si>
   <si>
-    <t>德國社會民主黨</t>
+    <t>德国社会民主党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E7%91%AA%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>魏瑪憲法</t>
+    <t>魏玛宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>德國共產黨</t>
+    <t>德国共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E6%B4%BE</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>普魯士總理</t>
+    <t>普鲁士总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%A4%A7%E6%80%BB%E7%BB%9F</t>
@@ -155,21 +155,18 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>德國國家元首列表</t>
+    <t>德国国家元首列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E7%91%AA%E5%85%B1%E5%92%8C</t>
   </si>
   <si>
-    <t>魏瑪共和</t>
+    <t>魏玛共和</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%A4%A7%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦大總統</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E6%96%AF%C2%B7%E8%B7%AF%E5%BE%B7</t>
   </si>
   <si>
@@ -179,13 +176,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>納粹德國</t>
+    <t>纳粹德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E9%A6%96_(%E7%B4%8D%E7%B2%B9%E5%BE%B7%E5%9C%8B)</t>
   </si>
   <si>
-    <t>元首 (納粹德國)</t>
+    <t>元首 (纳粹德国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%81%93%E5%A4%AB%C2%B7%E5%B8%8C%E7%89%B9%E5%8B%92</t>
@@ -227,7 +224,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E7%88%BE%E7%89%B9%C2%B7%E7%83%8F%E5%B8%83%E5%88%A9%E5%B8%8C</t>
   </si>
   <si>
-    <t>瓦爾特·烏布利希</t>
+    <t>瓦尔特·乌布利希</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E8%89%BE%E4%BC%AF%E7%89%B9_(1894-1979)</t>
@@ -275,7 +272,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E8%81%AF%E9%82%A6%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>德國聯邦總統</t>
+    <t>德国联邦总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%A5%A5%E5%A4%9A%E5%B0%94%C2%B7%E8%B1%AA%E6%96%AF</t>
@@ -311,7 +308,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%A4%8F%E5%BE%B7%C2%B7%E9%A6%AE%C2%B7%E9%AD%8F%E8%8C%A8%E6%BE%A4%E5%85%8B</t>
   </si>
   <si>
-    <t>里夏德·馮·魏茨澤克</t>
+    <t>里夏德·冯·魏茨泽克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9B%BC%C2%B7%E8%B5%AB%E5%B0%94%E4%BD%90%E5%85%8B</t>
@@ -323,7 +320,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E5%85%A7%E6%96%AF%C2%B7%E5%8B%9E</t>
   </si>
   <si>
-    <t>約翰內斯·勞</t>
+    <t>约翰内斯·劳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E6%96%AF%E7%89%B9%C2%B7%E5%85%8B%E5%8B%92</t>
@@ -383,7 +380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%A5%A7%C2%B7%E9%A6%AE%C2%B7%E5%8D%A1%E6%99%AE%E9%87%8C%E7%B6%AD</t>
   </si>
   <si>
-    <t>列奧·馮·卡普里維</t>
+    <t>列奥·冯·卡普里维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%B4%9B%E5%BE%B7%E7%BB%B4%E5%B8%8C%C2%B7%E5%8D%A1%E5%B0%94%C2%B7%E7%BB%B4%E5%85%8B%E6%89%98%C2%B7%E8%8F%B2%E6%96%AF%E7%89%B9%C2%B7%E9%9C%8D%E6%81%A9%E6%B4%9B%E5%8E%84-%E5%B8%8C%E7%81%B5%E6%96%AF%E8%8F%B2%E6%96%AF%E7%89%B9</t>
@@ -419,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E8%A5%BF%E7%B1%B3%E9%80%A3%C2%B7%E9%A6%AE%C2%B7%E5%B7%B4%E7%99%BB</t>
   </si>
   <si>
-    <t>馬克西米連·馮·巴登</t>
+    <t>马克西米连·冯·巴登</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%96%AF%E5%A1%94%E5%A4%AB%C2%B7%E9%B2%8D%E5%B0%94</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%88%BE%E6%9B%BC%C2%B7%E7%A9%86%E5%8B%92</t>
   </si>
   <si>
-    <t>赫爾曼·穆勒</t>
+    <t>赫尔曼·穆勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%96%AF%E5%9D%A6%E4%B8%81%C2%B7%E8%B4%B9%E4%BC%A6%E5%B7%B4%E8%B5%AB</t>
@@ -455,7 +452,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%96%AF%E5%A1%94%E5%A4%AB%C2%B7%E6%96%BD%E7%89%B9%E9%9B%B7%E6%BE%A4%E6%9B%BC</t>
   </si>
   <si>
-    <t>古斯塔夫·施特雷澤曼</t>
+    <t>古斯塔夫·施特雷泽曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%A9%AC%E5%85%8B%E6%80%9D</t>
@@ -473,25 +470,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E8%8C%A8%C2%B7%E9%A6%AE%C2%B7%E5%B8%95%E5%BD%AD</t>
   </si>
   <si>
-    <t>弗朗茨·馮·帕彭</t>
+    <t>弗朗茨·冯·帕彭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E7%88%BE%E7%89%B9%C2%B7%E9%A6%AE%C2%B7%E6%96%BD%E8%90%8A%E8%AC%9D%E7%88%BE</t>
   </si>
   <si>
-    <t>庫爾特·馮·施萊謝爾</t>
+    <t>库尔特·冯·施莱谢尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%91%9F%E5%A4%AB%C2%B7%E6%88%88%E5%9F%B9%E7%88%BE</t>
   </si>
   <si>
-    <t>約瑟夫·戈培爾</t>
+    <t>约瑟夫·戈培尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E8%8C%A8%C2%B7%E6%A0%BC%E6%8B%89%E5%A4%AB%C2%B7%E4%BB%80%E6%9C%AA%E6%9E%97%C2%B7%E9%A6%AE%C2%B7%E7%A7%91%E6%B4%9B%E5%B8%8C%E5%85%8B</t>
   </si>
   <si>
-    <t>魯茨·格拉夫·什未林·馮·科洛希克</t>
+    <t>鲁茨·格拉夫·什未林·冯·科洛希克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%89%98%C2%B7%E6%A0%BC%E7%BD%97%E6%8F%90%E6%B8%A5</t>
@@ -557,19 +554,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%93%88%E7%89%B9%C2%B7%E6%96%BD%E7%BE%85%E5%BE%B7</t>
   </si>
   <si>
-    <t>格哈特·施羅德</t>
+    <t>格哈特·施罗德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A0%BC%E6%8B%89%C2%B7%E9%BB%98%E5%85%8B%E7%88%BE</t>
   </si>
   <si>
-    <t>安格拉·默克爾</t>
+    <t>安格拉·默克尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -587,7 +584,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -599,7 +596,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1672,7 +1669,7 @@
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1698,10 +1695,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1756,10 +1753,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -1785,10 +1782,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>4</v>
@@ -1814,10 +1811,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -1843,10 +1840,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1872,10 +1869,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -1901,10 +1898,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>9</v>
@@ -1930,10 +1927,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -1959,10 +1956,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1988,10 +1985,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" t="s">
         <v>63</v>
-      </c>
-      <c r="F36" t="s">
-        <v>64</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2017,10 +2014,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
         <v>69</v>
-      </c>
-      <c r="F37" t="s">
-        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2046,10 +2043,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
         <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2075,10 +2072,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
         <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>3</v>
@@ -2104,10 +2101,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2133,10 +2130,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2162,10 +2159,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2191,10 +2188,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2220,10 +2217,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2249,10 +2246,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2278,10 +2275,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" t="s">
         <v>87</v>
-      </c>
-      <c r="F46" t="s">
-        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2307,10 +2304,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
         <v>89</v>
-      </c>
-      <c r="F47" t="s">
-        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2336,10 +2333,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2365,10 +2362,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2394,10 +2391,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2423,10 +2420,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2452,10 +2449,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2481,10 +2478,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2510,10 +2507,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2539,10 +2536,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2568,10 +2565,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2597,10 +2594,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2626,10 +2623,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2655,10 +2652,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2684,10 +2681,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>4</v>
@@ -2742,10 +2739,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" t="s">
         <v>117</v>
-      </c>
-      <c r="F62" t="s">
-        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -2771,10 +2768,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
         <v>119</v>
-      </c>
-      <c r="F63" t="s">
-        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2800,10 +2797,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" t="s">
         <v>121</v>
-      </c>
-      <c r="F64" t="s">
-        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2829,10 +2826,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" t="s">
         <v>123</v>
-      </c>
-      <c r="F65" t="s">
-        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2858,10 +2855,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" t="s">
         <v>125</v>
-      </c>
-      <c r="F66" t="s">
-        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2887,10 +2884,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" t="s">
         <v>127</v>
-      </c>
-      <c r="F67" t="s">
-        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2916,10 +2913,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" t="s">
         <v>129</v>
-      </c>
-      <c r="F68" t="s">
-        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2945,10 +2942,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" t="s">
         <v>131</v>
-      </c>
-      <c r="F69" t="s">
-        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2974,10 +2971,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
         <v>133</v>
-      </c>
-      <c r="F70" t="s">
-        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -3032,10 +3029,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>134</v>
+      </c>
+      <c r="F72" t="s">
         <v>135</v>
-      </c>
-      <c r="F72" t="s">
-        <v>136</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3061,10 +3058,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>136</v>
+      </c>
+      <c r="F73" t="s">
         <v>137</v>
-      </c>
-      <c r="F73" t="s">
-        <v>138</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -3090,10 +3087,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>138</v>
+      </c>
+      <c r="F74" t="s">
         <v>139</v>
-      </c>
-      <c r="F74" t="s">
-        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3119,10 +3116,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>140</v>
+      </c>
+      <c r="F75" t="s">
         <v>141</v>
-      </c>
-      <c r="F75" t="s">
-        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3148,10 +3145,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>142</v>
+      </c>
+      <c r="F76" t="s">
         <v>143</v>
-      </c>
-      <c r="F76" t="s">
-        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3177,10 +3174,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>144</v>
+      </c>
+      <c r="F77" t="s">
         <v>145</v>
-      </c>
-      <c r="F77" t="s">
-        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3206,10 +3203,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>146</v>
+      </c>
+      <c r="F78" t="s">
         <v>147</v>
-      </c>
-      <c r="F78" t="s">
-        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3235,10 +3232,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>148</v>
+      </c>
+      <c r="F79" t="s">
         <v>149</v>
-      </c>
-      <c r="F79" t="s">
-        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3264,10 +3261,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>150</v>
+      </c>
+      <c r="F80" t="s">
         <v>151</v>
-      </c>
-      <c r="F80" t="s">
-        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3293,10 +3290,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>152</v>
+      </c>
+      <c r="F81" t="s">
         <v>153</v>
-      </c>
-      <c r="F81" t="s">
-        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3322,10 +3319,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>154</v>
+      </c>
+      <c r="F82" t="s">
         <v>155</v>
-      </c>
-      <c r="F82" t="s">
-        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3351,10 +3348,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>156</v>
+      </c>
+      <c r="F83" t="s">
         <v>157</v>
-      </c>
-      <c r="F83" t="s">
-        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3380,10 +3377,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>158</v>
+      </c>
+      <c r="F84" t="s">
         <v>159</v>
-      </c>
-      <c r="F84" t="s">
-        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3409,10 +3406,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>160</v>
+      </c>
+      <c r="F85" t="s">
         <v>161</v>
-      </c>
-      <c r="F85" t="s">
-        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3438,10 +3435,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>162</v>
+      </c>
+      <c r="F86" t="s">
         <v>163</v>
-      </c>
-      <c r="F86" t="s">
-        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3467,10 +3464,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>164</v>
+      </c>
+      <c r="F87" t="s">
         <v>165</v>
-      </c>
-      <c r="F87" t="s">
-        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3496,10 +3493,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>166</v>
+      </c>
+      <c r="F88" t="s">
         <v>167</v>
-      </c>
-      <c r="F88" t="s">
-        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3525,10 +3522,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>168</v>
+      </c>
+      <c r="F89" t="s">
         <v>169</v>
-      </c>
-      <c r="F89" t="s">
-        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3554,10 +3551,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>170</v>
+      </c>
+      <c r="F90" t="s">
         <v>171</v>
-      </c>
-      <c r="F90" t="s">
-        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3583,10 +3580,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>172</v>
+      </c>
+      <c r="F91" t="s">
         <v>173</v>
-      </c>
-      <c r="F91" t="s">
-        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3612,10 +3609,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>174</v>
+      </c>
+      <c r="F92" t="s">
         <v>175</v>
-      </c>
-      <c r="F92" t="s">
-        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3641,10 +3638,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>176</v>
+      </c>
+      <c r="F93" t="s">
         <v>177</v>
-      </c>
-      <c r="F93" t="s">
-        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3670,10 +3667,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>178</v>
+      </c>
+      <c r="F94" t="s">
         <v>179</v>
-      </c>
-      <c r="F94" t="s">
-        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3699,10 +3696,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>180</v>
+      </c>
+      <c r="F95" t="s">
         <v>181</v>
-      </c>
-      <c r="F95" t="s">
-        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3728,10 +3725,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>182</v>
+      </c>
+      <c r="F96" t="s">
         <v>183</v>
-      </c>
-      <c r="F96" t="s">
-        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>3</v>
@@ -3757,10 +3754,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>184</v>
+      </c>
+      <c r="F97" t="s">
         <v>185</v>
-      </c>
-      <c r="F97" t="s">
-        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3786,10 +3783,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>186</v>
+      </c>
+      <c r="F98" t="s">
         <v>187</v>
-      </c>
-      <c r="F98" t="s">
-        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3815,10 +3812,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>188</v>
+      </c>
+      <c r="F99" t="s">
         <v>189</v>
-      </c>
-      <c r="F99" t="s">
-        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3844,10 +3841,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>190</v>
+      </c>
+      <c r="F100" t="s">
         <v>191</v>
-      </c>
-      <c r="F100" t="s">
-        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3873,10 +3870,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>192</v>
+      </c>
+      <c r="F101" t="s">
         <v>193</v>
-      </c>
-      <c r="F101" t="s">
-        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3902,10 +3899,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>194</v>
+      </c>
+      <c r="F102" t="s">
         <v>195</v>
-      </c>
-      <c r="F102" t="s">
-        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
